--- a/Van-Deemter/Kationentauscher/Hwerte_Berechnungen.xlsx
+++ b/Van-Deemter/Kationentauscher/Hwerte_Berechnungen.xlsx
@@ -500,13 +500,13 @@
         <v>0.3850997874928994</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02711028005626389</v>
+        <v>0.01355514002813194</v>
       </c>
       <c r="H2" t="n">
-        <v>201.7802008449216</v>
+        <v>807.1208033796862</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7433831434992113</v>
+        <v>0.1858457858748028</v>
       </c>
     </row>
     <row r="3">
@@ -529,13 +529,13 @@
         <v>0.4010105227722712</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02652910506659123</v>
+        <v>0.01326455253329561</v>
       </c>
       <c r="H3" t="n">
-        <v>228.4895479295922</v>
+        <v>913.9581917183688</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6564851712439016</v>
+        <v>0.1641212928109754</v>
       </c>
     </row>
     <row r="4">
@@ -558,13 +558,13 @@
         <v>0.4177157884477067</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02880230884505634</v>
+        <v>0.01440115442252817</v>
       </c>
       <c r="H4" t="n">
-        <v>210.3328833158215</v>
+        <v>841.331533263286</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7131552500745698</v>
+        <v>0.1782888125186425</v>
       </c>
     </row>
     <row r="5">
@@ -587,13 +587,13 @@
         <v>0.4350130149876672</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02828071913957057</v>
+        <v>0.01414035956978528</v>
       </c>
       <c r="H5" t="n">
-        <v>236.6048287771887</v>
+        <v>946.4193151087549</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6339684645289101</v>
+        <v>0.1584921161322275</v>
       </c>
     </row>
     <row r="6">
@@ -616,13 +616,13 @@
         <v>0.4543417754342858</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0299623902115754</v>
+        <v>0.0149811951057877</v>
       </c>
       <c r="H6" t="n">
-        <v>229.9388898187741</v>
+        <v>919.7555592750964</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6523472393826996</v>
+        <v>0.1630868098456749</v>
       </c>
     </row>
     <row r="7">
@@ -645,13 +645,13 @@
         <v>0.4777214327066843</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03025139868009151</v>
+        <v>0.01512569934004575</v>
       </c>
       <c r="H7" t="n">
-        <v>249.3782275610215</v>
+        <v>997.512910244086</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6014959744763436</v>
+        <v>0.1503739936190859</v>
       </c>
     </row>
     <row r="8">
@@ -674,13 +674,13 @@
         <v>0.4992324088972828</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03100498600148248</v>
+        <v>0.01550249300074124</v>
       </c>
       <c r="H8" t="n">
-        <v>259.2641464932973</v>
+        <v>1037.056585973189</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5785605222659582</v>
+        <v>0.1446401305664896</v>
       </c>
     </row>
     <row r="9">
@@ -703,13 +703,13 @@
         <v>0.5258386301434951</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03174680552881332</v>
+        <v>0.01587340276440666</v>
       </c>
       <c r="H9" t="n">
-        <v>274.3499671361407</v>
+        <v>1097.399868544563</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5467469216993399</v>
+        <v>0.136686730424835</v>
       </c>
     </row>
     <row r="10">
@@ -732,13 +732,13 @@
         <v>0.5559141010133677</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03496121892768825</v>
+        <v>0.01748060946384413</v>
       </c>
       <c r="H10" t="n">
-        <v>252.837943104695</v>
+        <v>1011.35177241878</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5932653863502129</v>
+        <v>0.1483163465875532</v>
       </c>
     </row>
     <row r="11">
@@ -761,13 +761,13 @@
         <v>0.587376040872635</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03582174760660806</v>
+        <v>0.01791087380330403</v>
       </c>
       <c r="H11" t="n">
-        <v>268.8678758153069</v>
+        <v>1075.471503261228</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5578948379204636</v>
+        <v>0.1394737094801159</v>
       </c>
     </row>
     <row r="12">
@@ -790,13 +790,13 @@
         <v>0.6276449450032509</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03633430545390195</v>
+        <v>0.01816715272695098</v>
       </c>
       <c r="H12" t="n">
-        <v>298.3969261409769</v>
+        <v>1193.587704563907</v>
       </c>
       <c r="I12" t="n">
-        <v>0.50268614338585</v>
+        <v>0.1256715358464625</v>
       </c>
     </row>
     <row r="13">
@@ -819,13 +819,13 @@
         <v>0.6744437539572086</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03983650204575794</v>
+        <v>0.01991825102287897</v>
       </c>
       <c r="H13" t="n">
-        <v>286.6349079580377</v>
+        <v>1146.539631832151</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5233137898959588</v>
+        <v>0.1308284474739897</v>
       </c>
     </row>
     <row r="14">
@@ -848,13 +848,13 @@
         <v>0.7247582399482789</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04316310835853662</v>
+        <v>0.02158155417926831</v>
       </c>
       <c r="H14" t="n">
-        <v>281.9427284632484</v>
+        <v>1127.770913852994</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5320229424521324</v>
+        <v>0.1330057356130331</v>
       </c>
     </row>
     <row r="15">
@@ -877,13 +877,13 @@
         <v>0.7830181881677972</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04723442673006207</v>
+        <v>0.02361721336503103</v>
       </c>
       <c r="H15" t="n">
-        <v>274.8061213874841</v>
+        <v>1099.224485549936</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5458393693803346</v>
+        <v>0.1364598423450837</v>
       </c>
     </row>
     <row r="16">
@@ -906,13 +906,13 @@
         <v>0.8545309090730873</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05118195272631455</v>
+        <v>0.02559097636315728</v>
       </c>
       <c r="H16" t="n">
-        <v>278.7544759451337</v>
+        <v>1115.017903780535</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5381079514200302</v>
+        <v>0.1345269878550076</v>
       </c>
     </row>
     <row r="17">
@@ -935,13 +935,13 @@
         <v>0.9382986563645096</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05521051403432162</v>
+        <v>0.02760525701716081</v>
       </c>
       <c r="H17" t="n">
-        <v>288.8275441778136</v>
+        <v>1155.310176711254</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5193410497845528</v>
+        <v>0.1298352624461382</v>
       </c>
     </row>
     <row r="18">
@@ -964,13 +964,13 @@
         <v>1.044360486200748</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06061653420525911</v>
+        <v>0.03030826710262955</v>
       </c>
       <c r="H18" t="n">
-        <v>296.8374282224198</v>
+        <v>1187.349712889679</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5053271108642177</v>
+        <v>0.1263317777160544</v>
       </c>
     </row>
     <row r="19">
@@ -993,13 +993,13 @@
         <v>1.173739776812694</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06933425308537135</v>
+        <v>0.03466712654268567</v>
       </c>
       <c r="H19" t="n">
-        <v>286.5813752376485</v>
+        <v>1146.325500950594</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5234115436692703</v>
+        <v>0.1308528859173176</v>
       </c>
     </row>
     <row r="20">
@@ -1022,13 +1022,13 @@
         <v>1.345028218568258</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07841744858878102</v>
+        <v>0.03920872429439051</v>
       </c>
       <c r="H20" t="n">
-        <v>294.1964148748002</v>
+        <v>1176.785659499201</v>
       </c>
       <c r="I20" t="n">
-        <v>0.50986345317578</v>
+        <v>0.127465863293945</v>
       </c>
     </row>
     <row r="21">
@@ -1051,13 +1051,13 @@
         <v>1.568290145801244</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09042487897838646</v>
+        <v>0.04521243948919323</v>
       </c>
       <c r="H21" t="n">
-        <v>300.7993925330349</v>
+        <v>1203.19757013214</v>
       </c>
       <c r="I21" t="n">
-        <v>0.498671219834749</v>
+        <v>0.1246678049586872</v>
       </c>
     </row>
     <row r="22">
@@ -1080,13 +1080,13 @@
         <v>1.884003785318457</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1095640952452281</v>
+        <v>0.05478204762261405</v>
       </c>
       <c r="H22" t="n">
-        <v>295.6834579301516</v>
+        <v>1182.733831720607</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5072992620217328</v>
+        <v>0.1268248155054332</v>
       </c>
     </row>
     <row r="23">
@@ -1109,13 +1109,13 @@
         <v>2.357319951213362</v>
       </c>
       <c r="G23" t="n">
-        <v>0.137610510869806</v>
+        <v>0.06880525543490298</v>
       </c>
       <c r="H23" t="n">
-        <v>293.4498213533791</v>
+        <v>1173.799285413517</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5111606451426886</v>
+        <v>0.1277901612856721</v>
       </c>
     </row>
     <row r="24">
@@ -1138,13 +1138,13 @@
         <v>3.150733189659565</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1838870972773084</v>
+        <v>0.09194354863865419</v>
       </c>
       <c r="H24" t="n">
-        <v>293.5761298005949</v>
+        <v>1174.304519202379</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5109407229459841</v>
+        <v>0.127735180736496</v>
       </c>
     </row>
     <row r="25">
@@ -1167,13 +1167,13 @@
         <v>4.729880744930183</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2763520662319404</v>
+        <v>0.1381760331159702</v>
       </c>
       <c r="H25" t="n">
-        <v>292.9374857755091</v>
+        <v>1171.749943102036</v>
       </c>
       <c r="I25" t="n">
-        <v>0.512054644023782</v>
+        <v>0.1280136610059455</v>
       </c>
     </row>
     <row r="26">
@@ -1196,13 +1196,13 @@
         <v>9.495797499620867</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5690418635610982</v>
+        <v>0.2845209317805491</v>
       </c>
       <c r="H26" t="n">
-        <v>278.4674598608298</v>
+        <v>1113.869839443319</v>
       </c>
       <c r="I26" t="n">
-        <v>0.538662578654489</v>
+        <v>0.1346656446636222</v>
       </c>
     </row>
   </sheetData>
